--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1149">
   <si>
     <t>anchor score</t>
   </si>
@@ -361,853 +361,853 @@
     <t>support</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>mall</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>managed</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>canadian</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>asked</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>comes</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>rental</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>mall</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>managed</t>
-  </si>
-  <si>
-    <t>losing</t>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>growing</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>appreciation</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>united</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>canadian</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>asked</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>prep</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>comes</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>el</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>win</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>growing</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>appreciation</t>
   </si>
   <si>
     <t>initiative</t>
@@ -3829,7 +3829,7 @@
         <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4608,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4658,7 +4658,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4908,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K23">
         <v>0.9333333333333333</v>
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K24">
         <v>0.9230769230769231</v>
@@ -5008,7 +5008,7 @@
         <v>99</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K25">
         <v>0.9230769230769231</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K26">
         <v>0.9166666666666666</v>
@@ -5258,7 +5258,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K30">
         <v>0.8936170212765957</v>
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K33">
         <v>0.8888888888888888</v>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K35">
         <v>0.875</v>
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K36">
         <v>0.8740157480314961</v>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K38">
         <v>0.8666666666666667</v>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K39">
         <v>0.8666666666666667</v>
@@ -5758,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K40">
         <v>0.8636363636363636</v>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K41">
         <v>0.8636363636363636</v>
@@ -5858,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K42">
         <v>0.8571428571428571</v>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K43">
         <v>0.8571428571428571</v>
@@ -5958,7 +5958,7 @@
         <v>10</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K44">
         <v>0.8571428571428571</v>
@@ -6108,7 +6108,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K47">
         <v>0.8518518518518519</v>
@@ -6258,7 +6258,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K50">
         <v>0.8333333333333334</v>
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K52">
         <v>0.8333333333333334</v>
@@ -6408,7 +6408,7 @@
         <v>10</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K53">
         <v>0.8333333333333334</v>
@@ -6458,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K54">
         <v>0.8333333333333334</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K55">
         <v>0.8333333333333334</v>
@@ -6558,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K56">
         <v>0.8333333333333334</v>
@@ -6608,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6658,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K58">
         <v>0.825</v>
@@ -6708,7 +6708,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K59">
         <v>0.8245614035087719</v>
@@ -6758,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K60">
         <v>0.8181818181818182</v>
@@ -6808,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K61">
         <v>0.8181818181818182</v>
@@ -6858,7 +6858,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K62">
         <v>0.8181818181818182</v>
@@ -6908,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K63">
         <v>0.8141025641025641</v>
@@ -6958,7 +6958,7 @@
         <v>4</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K64">
         <v>0.8</v>
@@ -7008,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K65">
         <v>0.8</v>
@@ -7108,7 +7108,7 @@
         <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K67">
         <v>0.8</v>
@@ -7308,7 +7308,7 @@
         <v>5</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K71">
         <v>0.7916666666666666</v>
@@ -7358,7 +7358,7 @@
         <v>14</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K72">
         <v>0.7857142857142857</v>
@@ -7408,7 +7408,7 @@
         <v>6</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K73">
         <v>0.7785714285714286</v>
@@ -7458,7 +7458,7 @@
         <v>15</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K74">
         <v>0.7777777777777778</v>
@@ -7508,7 +7508,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K75">
         <v>0.7777777777777778</v>
@@ -7658,7 +7658,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K78">
         <v>0.7692307692307693</v>
@@ -7708,16 +7708,16 @@
         <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K79">
-        <v>0.762114537444934</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L79">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="M79">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="N79">
         <v>0.9399999999999999</v>
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -7758,28 +7758,28 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>132</v>
+        <v>364</v>
       </c>
       <c r="K80">
-        <v>0.7555555555555555</v>
+        <v>0.75</v>
       </c>
       <c r="L80">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="M80">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -7808,16 +7808,16 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K81">
         <v>0.75</v>
       </c>
       <c r="L81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -7858,28 +7858,28 @@
         <v>26</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>367</v>
+        <v>65</v>
       </c>
       <c r="K82">
         <v>0.75</v>
       </c>
       <c r="L82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M82">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7908,7 +7908,7 @@
         <v>7</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>65</v>
+        <v>366</v>
       </c>
       <c r="K83">
         <v>0.75</v>
@@ -7917,16 +7917,16 @@
         <v>6</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -7958,7 +7958,7 @@
         <v>14</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K84">
         <v>0.75</v>
@@ -8008,16 +8008,16 @@
         <v>7</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K85">
-        <v>0.75</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -8058,28 +8058,28 @@
         <v>15</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="K86">
-        <v>0.7450980392156863</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L86">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M86">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -8108,28 +8108,28 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>125</v>
+        <v>369</v>
       </c>
       <c r="K87">
-        <v>0.7368421052631579</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N87">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -8158,28 +8158,28 @@
         <v>12</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>371</v>
+        <v>114</v>
       </c>
       <c r="K88">
-        <v>0.7333333333333333</v>
+        <v>0.73</v>
       </c>
       <c r="L88">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="M88">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -8208,16 +8208,16 @@
         <v>4</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K89">
-        <v>0.73</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L89">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M89">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="N89">
         <v>0.92</v>
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -8258,28 +8258,28 @@
         <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="K90">
         <v>0.7272727272727273</v>
       </c>
       <c r="L90">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="M90">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="N90">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="O90">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8308,7 +8308,7 @@
         <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>85</v>
+        <v>370</v>
       </c>
       <c r="K91">
         <v>0.7272727272727273</v>
@@ -8317,16 +8317,16 @@
         <v>8</v>
       </c>
       <c r="M91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N91">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>372</v>
+        <v>86</v>
       </c>
       <c r="K92">
         <v>0.7272727272727273</v>
@@ -8367,16 +8367,16 @@
         <v>8</v>
       </c>
       <c r="M92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -8408,7 +8408,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K93">
         <v>0.7272727272727273</v>
@@ -8458,28 +8458,28 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="K94">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L94">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="N94">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -8508,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K95">
         <v>0.7222222222222222</v>
@@ -8608,7 +8608,7 @@
         <v>4</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K97">
         <v>0.7142857142857143</v>
@@ -8658,7 +8658,7 @@
         <v>8</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K98">
         <v>0.7142857142857143</v>
@@ -8708,7 +8708,7 @@
         <v>4</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K99">
         <v>0.7142857142857143</v>
@@ -8758,7 +8758,7 @@
         <v>21</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K100">
         <v>0.7142857142857143</v>
@@ -8808,7 +8808,7 @@
         <v>13</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K101">
         <v>0.7142857142857143</v>
@@ -8858,7 +8858,7 @@
         <v>13</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K102">
         <v>0.7142857142857143</v>
@@ -8958,7 +8958,7 @@
         <v>13</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K104">
         <v>0.7058823529411765</v>
@@ -9008,7 +9008,7 @@
         <v>61</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K105">
         <v>0.6956521739130435</v>
@@ -9058,7 +9058,7 @@
         <v>18</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K106">
         <v>0.6829268292682927</v>
@@ -9108,7 +9108,7 @@
         <v>9</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K107">
         <v>0.6818181818181818</v>
@@ -9158,7 +9158,7 @@
         <v>9</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
@@ -9208,7 +9208,7 @@
         <v>27</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K109">
         <v>0.6666666666666666</v>
@@ -9237,28 +9237,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -9290,22 +9290,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>5</v>
-      </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>25</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>63</v>
@@ -9358,7 +9358,7 @@
         <v>5</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -9393,22 +9393,22 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9443,13 +9443,13 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F114">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -9493,22 +9493,22 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>5</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -9540,25 +9540,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K116">
         <v>0.6666666666666666</v>
@@ -9593,13 +9593,13 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F117">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>10</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K117">
         <v>0.6666666666666666</v>
@@ -9640,25 +9640,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F118">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K118">
         <v>0.6666666666666666</v>
@@ -9693,13 +9693,13 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E119">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F119">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -9708,7 +9708,7 @@
         <v>5</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K119">
         <v>0.6666666666666666</v>
@@ -9743,13 +9743,13 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F120">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
@@ -9758,7 +9758,7 @@
         <v>5</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K120">
         <v>0.6571428571428571</v>
@@ -9793,13 +9793,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9808,7 +9808,7 @@
         <v>5</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K121">
         <v>0.6473684210526316</v>
@@ -9843,13 +9843,13 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F122">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
@@ -9858,7 +9858,7 @@
         <v>5</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K122">
         <v>0.6468531468531469</v>
@@ -9887,28 +9887,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.1666666666666667</v>
+        <v>0.1631067961165049</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E123">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>0.99</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>5</v>
+        <v>431</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K123">
         <v>0.6428571428571429</v>
@@ -9937,28 +9937,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1631067961165049</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C124">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="E124">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>431</v>
+        <v>22</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K124">
         <v>0.6428571428571429</v>
@@ -9990,10 +9990,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -10005,10 +10005,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K125">
         <v>0.6428571428571429</v>
@@ -10040,25 +10040,25 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K126">
         <v>0.6428571428571429</v>
@@ -10087,28 +10087,28 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1538461538461539</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D127">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K127">
         <v>0.640625</v>
@@ -10137,25 +10137,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1481481481481481</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C128">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>95</v>
@@ -10190,22 +10190,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>102</v>
@@ -10243,22 +10243,22 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>6</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K130">
         <v>0.6363636363636364</v>
@@ -10290,22 +10290,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>103</v>
@@ -10340,22 +10340,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>90</v>
@@ -10393,43 +10393,43 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>6</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>161</v>
+        <v>395</v>
       </c>
       <c r="K133">
-        <v>0.6276923076923077</v>
+        <v>0.625</v>
       </c>
       <c r="L133">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="M133">
-        <v>219</v>
+        <v>5</v>
       </c>
       <c r="N133">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O133">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -10440,22 +10440,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="F134">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>396</v>
@@ -10490,46 +10490,46 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F135">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>397</v>
+        <v>93</v>
       </c>
       <c r="K135">
-        <v>0.625</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M135">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -10558,28 +10558,28 @@
         <v>6</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="K136">
-        <v>0.6129032258064516</v>
+        <v>0.6</v>
       </c>
       <c r="L136">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="M136">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="N136">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O136">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -10593,13 +10593,13 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
@@ -10637,25 +10637,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.1428571428571428</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>398</v>
@@ -10687,25 +10687,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.1363636363636364</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>399</v>
@@ -10737,25 +10737,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>61</v>
@@ -10787,25 +10787,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>70</v>
@@ -10843,13 +10843,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F142">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10893,13 +10893,13 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F143">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -10940,22 +10940,22 @@
         <v>0.125</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E144">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>66</v>
@@ -10990,25 +10990,25 @@
         <v>0.125</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K145">
         <v>0.5930232558139535</v>
@@ -11043,22 +11043,22 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>7</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K146">
         <v>0.5833333333333334</v>
@@ -11087,25 +11087,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F147">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>401</v>
@@ -11137,25 +11137,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
         <v>4</v>
       </c>
-      <c r="D148">
-        <v>131</v>
-      </c>
       <c r="E148">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>402</v>
@@ -11187,28 +11187,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F149">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K149">
         <v>0.5666666666666667</v>
@@ -11240,22 +11240,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>8</v>
-      </c>
-      <c r="E150">
-        <v>0.75</v>
-      </c>
-      <c r="F150">
-        <v>0.25</v>
-      </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>16</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>403</v>
@@ -11293,22 +11293,22 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>8</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K151">
         <v>0.5641025641025641</v>
@@ -11340,22 +11340,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E152">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="F152">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>404</v>
@@ -11390,22 +11390,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>405</v>
@@ -11458,7 +11458,7 @@
         <v>8</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K154">
         <v>0.5555555555555556</v>
@@ -11487,25 +11487,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>406</v>
@@ -11537,25 +11537,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.1102941176470588</v>
+        <v>0.1</v>
       </c>
       <c r="C156">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>407</v>
@@ -11587,25 +11587,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E157">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="F157">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>408</v>
@@ -11643,13 +11643,13 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -11693,13 +11693,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E159">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F159">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -11708,7 +11708,7 @@
         <v>9</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K159">
         <v>0.5238095238095238</v>
@@ -11743,13 +11743,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -11787,28 +11787,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.1</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K161">
         <v>0.52</v>
@@ -11837,25 +11837,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>411</v>
@@ -11887,13 +11887,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.09803921568627451</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>412</v>
@@ -11990,22 +11990,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>414</v>
@@ -12043,16 +12043,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>10</v>
@@ -12090,22 +12090,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E167">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="F167">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>416</v>
@@ -12143,13 +12143,13 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -12193,13 +12193,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F169">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -12237,25 +12237,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>418</v>
@@ -12287,25 +12287,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>419</v>
@@ -12343,16 +12343,16 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
         <v>11</v>
@@ -12393,16 +12393,16 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>11</v>
@@ -12437,25 +12437,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.08333333333333333</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F174">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>422</v>
@@ -12487,25 +12487,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E175">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F175">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>423</v>
@@ -12537,25 +12537,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.08181818181818182</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C176">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>97</v>
@@ -12587,25 +12587,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>424</v>
@@ -12640,22 +12640,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>425</v>
@@ -12690,10 +12690,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -12705,7 +12705,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>426</v>
@@ -12743,13 +12743,13 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F180">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -12793,16 +12793,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>12</v>
@@ -12843,13 +12843,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12893,13 +12893,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E183">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -12943,13 +12943,13 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
@@ -12993,13 +12993,13 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
@@ -13037,25 +13037,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>431</v>
@@ -13087,25 +13087,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>432</v>
@@ -13143,13 +13143,13 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
@@ -13193,16 +13193,16 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
         <v>13</v>
@@ -13243,13 +13243,13 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E190">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
@@ -13293,16 +13293,16 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>13</v>
@@ -13343,13 +13343,13 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -13387,7 +13387,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>437</v>
@@ -13437,25 +13437,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>89</v>
@@ -13493,22 +13493,22 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
         <v>14</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K195">
         <v>0.48</v>
@@ -13587,28 +13587,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.06666666666666667</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K197">
         <v>0.4705882352941176</v>
@@ -13637,25 +13637,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>88</v>
@@ -13687,25 +13687,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.06493506493506493</v>
+        <v>0.0625</v>
       </c>
       <c r="C199">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <v>5</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>439</v>
@@ -13743,22 +13743,22 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>15</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K200">
         <v>0.4545454545454545</v>
@@ -13787,25 +13787,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F201">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>440</v>
@@ -13837,7 +13837,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13855,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>441</v>
@@ -13887,25 +13887,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="E203">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F203">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>442</v>
@@ -13943,16 +13943,16 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>16</v>
@@ -13993,22 +13993,22 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>16</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K205">
         <v>0.4285714285714285</v>
@@ -14037,25 +14037,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F206">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>444</v>
@@ -14087,7 +14087,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>445</v>
@@ -14143,13 +14143,13 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
@@ -14193,16 +14193,16 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>17</v>
@@ -14243,13 +14243,13 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
@@ -14293,13 +14293,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E211">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -14337,28 +14337,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
         <v>2</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K212">
         <v>0.4285714285714285</v>
@@ -14387,25 +14387,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>99</v>
@@ -14440,22 +14440,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>449</v>
@@ -14487,25 +14487,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>450</v>
@@ -14537,25 +14537,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E216">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F216">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>451</v>
@@ -14593,16 +14593,16 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>19</v>
@@ -14643,13 +14643,13 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F218">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
@@ -14687,28 +14687,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K219">
         <v>0.4117647058823529</v>
@@ -14737,25 +14737,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.05</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>454</v>
@@ -14787,25 +14787,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>455</v>
@@ -14837,28 +14837,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K222">
         <v>0.4074074074074074</v>
@@ -14887,7 +14887,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>81</v>
@@ -14943,13 +14943,13 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F224">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
@@ -14958,7 +14958,7 @@
         <v>23</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K224">
         <v>0.4</v>
@@ -15043,13 +15043,13 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E226">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F226">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
@@ -15137,25 +15137,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>459</v>
@@ -15187,7 +15187,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>460</v>
@@ -15237,25 +15237,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>461</v>
@@ -15287,25 +15287,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>462</v>
@@ -15337,28 +15337,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K232">
         <v>0.375</v>
@@ -15387,25 +15387,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>463</v>
@@ -15443,16 +15443,16 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
         <v>25</v>
@@ -15487,25 +15487,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.03846153846153846</v>
+        <v>0.0375</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>465</v>
@@ -15537,25 +15537,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>466</v>
@@ -15587,25 +15587,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0375</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>467</v>
@@ -15637,28 +15637,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E238">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F238">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K238">
         <v>0.375</v>
@@ -15693,16 +15693,16 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>27</v>
@@ -15737,25 +15737,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>469</v>
@@ -15787,7 +15787,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.03571428571428571</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>470</v>
@@ -15837,28 +15837,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K242">
         <v>0.375</v>
@@ -15937,7 +15937,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15955,10 +15955,10 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K244">
         <v>0.3636363636363636</v>
@@ -15987,25 +15987,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.03225806451612903</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>472</v>
@@ -16037,25 +16037,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>473</v>
@@ -16087,28 +16087,28 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E247">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F247">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K247">
         <v>0.3571428571428572</v>
@@ -16137,7 +16137,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -16155,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>474</v>
@@ -16187,25 +16187,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E249">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F249">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>475</v>
@@ -16237,25 +16237,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>476</v>
@@ -16287,25 +16287,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>113</v>
@@ -16337,25 +16337,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E252">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F252">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>477</v>
@@ -16387,25 +16387,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E253">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F253">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>478</v>
@@ -16437,25 +16437,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E254">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F254">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>479</v>
@@ -16487,28 +16487,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E255">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F255">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K255">
         <v>0.3478260869565217</v>
@@ -16537,28 +16537,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.02439024390243903</v>
+        <v>0.02287581699346405</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="E256">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F256">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K256">
         <v>0.3461538461538461</v>
@@ -16587,28 +16587,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K257">
         <v>0.3448275862068966</v>
@@ -16637,28 +16637,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.02287581699346405</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C258">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K258">
         <v>0.3414634146341464</v>
@@ -16687,25 +16687,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.02222222222222222</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>480</v>
@@ -16737,25 +16737,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>481</v>
@@ -16787,25 +16787,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0218978102189781</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="E261">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F261">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>482</v>
@@ -16837,28 +16837,28 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.02173913043478261</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F262">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K262">
         <v>0.3333333333333333</v>
@@ -16887,25 +16887,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.02127659574468085</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>483</v>
@@ -16937,25 +16937,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.02105263157894737</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E264">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F264">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>484</v>
@@ -16987,25 +16987,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.02013422818791946</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>485</v>
@@ -17037,25 +17037,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E266">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F266">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>486</v>
@@ -17087,25 +17087,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E267">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F267">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>487</v>
@@ -17137,25 +17137,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01851851851851852</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E268">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F268">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>488</v>
@@ -17187,25 +17187,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E269">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F269">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>94</v>
@@ -17237,25 +17237,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01801801801801802</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D270">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E270">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F270">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>489</v>
@@ -17287,25 +17287,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E271">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F271">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>490</v>
@@ -17337,25 +17337,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01734104046242774</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="C272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E272">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F272">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>491</v>
@@ -17387,25 +17387,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01724137931034483</v>
+        <v>0.015625</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E273">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F273">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>492</v>
@@ -17437,25 +17437,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01680672268907563</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E274">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F274">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>493</v>
@@ -17487,25 +17487,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.015625</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E275">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F275">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>494</v>
@@ -17537,28 +17537,28 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01538461538461539</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E276">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F276">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K276">
         <v>0.3214285714285715</v>
@@ -17587,25 +17587,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01388888888888889</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E277">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F277">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>495</v>
@@ -17637,25 +17637,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01351351351351351</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E278">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F278">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>496</v>
@@ -17687,25 +17687,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01234567901234568</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E279">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>497</v>
@@ -17737,7 +17737,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01234567901234568</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17755,7 +17755,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>498</v>
@@ -17787,25 +17787,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.01219512195121951</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>499</v>
@@ -17837,25 +17837,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01219512195121951</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E282">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F282">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>112</v>
@@ -17887,25 +17887,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01176470588235294</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E283">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F283">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>500</v>
@@ -17937,28 +17937,28 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.01136363636363636</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E284">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F284">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K284">
         <v>0.3076923076923077</v>
@@ -17987,25 +17987,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01111111111111111</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E285">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F285">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>501</v>
@@ -18037,28 +18037,28 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01098901098901099</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E286">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F286">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K286">
         <v>0.303030303030303</v>
@@ -18087,25 +18087,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01047120418848168</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E287">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F287">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>502</v>
@@ -18143,13 +18143,13 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E288">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F288">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
@@ -18187,25 +18187,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01020408163265306</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E289">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F289">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>504</v>
@@ -18237,25 +18237,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.01020408163265306</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E290">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F290">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>505</v>
@@ -18287,25 +18287,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.009900990099009901</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E291">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F291">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>506</v>
@@ -18337,25 +18337,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.009615384615384616</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E292">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F292">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>507</v>
@@ -18387,25 +18387,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.009433962264150943</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E293">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F293">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>508</v>
@@ -18437,28 +18437,28 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.009345794392523364</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E294">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F294">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K294">
         <v>0.288135593220339</v>
@@ -18487,25 +18487,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.008849557522123894</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E295">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F295">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>509</v>
@@ -18537,25 +18537,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.007936507936507936</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E296">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F296">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>510</v>
@@ -18587,25 +18587,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.007751937984496124</v>
+        <v>0.006557377049180328</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E297">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F297">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>511</v>
@@ -18637,25 +18637,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.0072992700729927</v>
+        <v>0.006257822277847309</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D298">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E298">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F298">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>136</v>
+        <v>794</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>512</v>
@@ -18687,25 +18687,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.006557377049180328</v>
+        <v>0.006237006237006237</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D299">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E299">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F299">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>303</v>
+        <v>956</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>513</v>
@@ -18737,25 +18737,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.006257822277847309</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C300">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E300">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F300">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>794</v>
+        <v>160</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>514</v>
@@ -18787,25 +18787,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.006237006237006237</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C301">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E301">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F301">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>956</v>
+        <v>166</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>515</v>
@@ -18837,25 +18837,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.006211180124223602</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E302">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H302">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>516</v>
@@ -18887,25 +18887,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.005988023952095809</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D303">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="E303">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F303">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>166</v>
+        <v>772</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>517</v>
@@ -18937,25 +18937,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.005291005291005291</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F304">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>518</v>
@@ -18987,28 +18987,28 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.005154639175257732</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="C305">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="E305">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F305">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>772</v>
+        <v>353</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K305">
         <v>0.2857142857142857</v>
@@ -19037,25 +19037,25 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.004464285714285714</v>
+        <v>0.002358490566037736</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E306">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F306">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>223</v>
+        <v>423</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>519</v>
@@ -19087,28 +19087,28 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.002824858757062147</v>
+        <v>0.002353732347007398</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D307">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="E307">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F307">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>353</v>
+        <v>2967</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K307">
         <v>0.2857142857142857</v>
@@ -19137,25 +19137,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.002358490566037736</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E308">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F308">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>423</v>
+        <v>539</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>520</v>
@@ -19187,13 +19187,13 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.002353732347007398</v>
+        <v>0.001589825119236884</v>
       </c>
       <c r="C309">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="E309">
         <v>0.95</v>
@@ -19205,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>2967</v>
+        <v>628</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>521</v>
@@ -19237,25 +19237,25 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.001851851851851852</v>
+        <v>0.001457017969888295</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D310">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E310">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F310">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>539</v>
+        <v>2056</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>522</v>
@@ -19287,13 +19287,13 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.001589825119236884</v>
+        <v>0.001280409731113956</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D311">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="E311">
         <v>0.95</v>
@@ -19305,7 +19305,7 @@
         <v>1</v>
       </c>
       <c r="H311">
-        <v>628</v>
+        <v>3120</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>523</v>
@@ -19337,25 +19337,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.001457017969888295</v>
+        <v>0.001221001221001221</v>
       </c>
       <c r="C312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D312">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="E312">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F312">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>2056</v>
+        <v>818</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>524</v>
@@ -19387,28 +19387,28 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.001280409731113956</v>
+        <v>0.000881057268722467</v>
       </c>
       <c r="C313">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E313">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F313">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>3120</v>
+        <v>1134</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K313">
         <v>0.28</v>
@@ -19433,30 +19433,6 @@
       </c>
     </row>
     <row r="314" spans="1:17">
-      <c r="A314" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B314">
-        <v>0.001221001221001221</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>49</v>
-      </c>
-      <c r="E314">
-        <v>0.98</v>
-      </c>
-      <c r="F314">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G314" t="b">
-        <v>1</v>
-      </c>
-      <c r="H314">
-        <v>818</v>
-      </c>
       <c r="J314" s="1" t="s">
         <v>525</v>
       </c>
@@ -19483,32 +19459,8 @@
       </c>
     </row>
     <row r="315" spans="1:17">
-      <c r="A315" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B315">
-        <v>0.000881057268722467</v>
-      </c>
-      <c r="C315">
-        <v>1</v>
-      </c>
-      <c r="D315">
-        <v>27</v>
-      </c>
-      <c r="E315">
-        <v>0.96</v>
-      </c>
-      <c r="F315">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G315" t="b">
-        <v>1</v>
-      </c>
-      <c r="H315">
-        <v>1134</v>
-      </c>
       <c r="J315" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K315">
         <v>0.2777777777777778</v>
@@ -19534,7 +19486,7 @@
     </row>
     <row r="316" spans="1:17">
       <c r="J316" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K316">
         <v>0.2727272727272727</v>
@@ -19716,7 +19668,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K323">
         <v>0.2725060827250608</v>
@@ -19820,7 +19772,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K327">
         <v>0.2666666666666667</v>
@@ -20106,7 +20058,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K338">
         <v>0.25</v>
@@ -20522,7 +20474,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K354">
         <v>0.25</v>
@@ -20964,7 +20916,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K371">
         <v>0.2279411764705882</v>
@@ -21146,7 +21098,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K378">
         <v>0.2222222222222222</v>
@@ -21328,7 +21280,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K385">
         <v>0.2162162162162162</v>
@@ -21510,7 +21462,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K392">
         <v>0.2105263157894737</v>
@@ -21562,7 +21514,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K394">
         <v>0.2098765432098765</v>
@@ -21614,7 +21566,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K396">
         <v>0.2083333333333333</v>
@@ -21848,7 +21800,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K405">
         <v>0.2</v>
@@ -22160,7 +22112,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K417">
         <v>0.1981132075471698</v>
@@ -22264,7 +22216,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K421">
         <v>0.1891891891891892</v>
@@ -22342,7 +22294,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K424">
         <v>0.1875</v>
@@ -22446,7 +22398,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K428">
         <v>0.1818181818181818</v>
@@ -22784,7 +22736,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K441">
         <v>0.1785714285714286</v>
@@ -22940,7 +22892,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K447">
         <v>0.1679389312977099</v>
@@ -23122,7 +23074,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K454">
         <v>0.1666666666666667</v>
@@ -23538,7 +23490,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K470">
         <v>0.1666666666666667</v>
@@ -23564,7 +23516,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K471">
         <v>0.1666666666666667</v>
@@ -24058,7 +24010,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K490">
         <v>0.15625</v>
@@ -24292,7 +24244,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K499">
         <v>0.1538461538461539</v>
@@ -24318,7 +24270,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K500">
         <v>0.1525423728813559</v>
@@ -24344,7 +24296,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K501">
         <v>0.1515151515151515</v>
@@ -24396,7 +24348,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K503">
         <v>0.15</v>
@@ -24422,7 +24374,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K504">
         <v>0.15</v>
@@ -24552,7 +24504,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K509">
         <v>0.1451612903225807</v>
@@ -24604,7 +24556,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K511">
         <v>0.1438356164383562</v>
@@ -24760,7 +24712,7 @@
     </row>
     <row r="517" spans="10:17">
       <c r="J517" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K517">
         <v>0.1428571428571428</v>
@@ -25098,7 +25050,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K530">
         <v>0.1428571428571428</v>
@@ -25228,7 +25180,7 @@
     </row>
     <row r="535" spans="10:17">
       <c r="J535" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K535">
         <v>0.1428571428571428</v>
@@ -25306,7 +25258,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K538">
         <v>0.1428571428571428</v>
@@ -25410,7 +25362,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K542">
         <v>0.1428571428571428</v>
@@ -25488,7 +25440,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K545">
         <v>0.1428571428571428</v>
@@ -25644,7 +25596,7 @@
     </row>
     <row r="551" spans="10:17">
       <c r="J551" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K551">
         <v>0.1392405063291139</v>
@@ -25722,7 +25674,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K554">
         <v>0.1379310344827586</v>
@@ -25748,7 +25700,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K555">
         <v>0.1363636363636364</v>
@@ -25800,7 +25752,7 @@
     </row>
     <row r="557" spans="10:17">
       <c r="J557" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K557">
         <v>0.1359223300970874</v>
@@ -25904,7 +25856,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K561">
         <v>0.1333333333333333</v>
@@ -25956,7 +25908,7 @@
     </row>
     <row r="563" spans="10:17">
       <c r="J563" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K563">
         <v>0.1333333333333333</v>
@@ -26034,7 +25986,7 @@
     </row>
     <row r="566" spans="10:17">
       <c r="J566" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K566">
         <v>0.1325842696629214</v>
@@ -26164,7 +26116,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K571">
         <v>0.1304347826086956</v>
@@ -26216,7 +26168,7 @@
     </row>
     <row r="573" spans="10:17">
       <c r="J573" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K573">
         <v>0.1290322580645161</v>
@@ -26294,7 +26246,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K576">
         <v>0.1278350515463917</v>
@@ -26320,7 +26272,7 @@
     </row>
     <row r="577" spans="10:17">
       <c r="J577" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K577">
         <v>0.125</v>
@@ -26424,7 +26376,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K581">
         <v>0.125</v>
@@ -26450,7 +26402,7 @@
     </row>
     <row r="582" spans="10:17">
       <c r="J582" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K582">
         <v>0.125</v>
@@ -27334,7 +27286,7 @@
     </row>
     <row r="616" spans="10:17">
       <c r="J616" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K616">
         <v>0.1176470588235294</v>
@@ -27464,7 +27416,7 @@
     </row>
     <row r="621" spans="10:17">
       <c r="J621" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K621">
         <v>0.1138392857142857</v>
@@ -27490,7 +27442,7 @@
     </row>
     <row r="622" spans="10:17">
       <c r="J622" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K622">
         <v>0.1126760563380282</v>
@@ -27854,7 +27806,7 @@
     </row>
     <row r="636" spans="10:17">
       <c r="J636" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K636">
         <v>0.1111111111111111</v>
@@ -28244,7 +28196,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K651">
         <v>0.1071428571428571</v>
@@ -28374,7 +28326,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K656">
         <v>0.1052631578947368</v>
@@ -28608,7 +28560,7 @@
     </row>
     <row r="665" spans="10:17">
       <c r="J665" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K665">
         <v>0.1</v>
@@ -28894,7 +28846,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K676">
         <v>0.1</v>
@@ -29076,7 +29028,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K683">
         <v>0.09259259259259259</v>
@@ -29154,7 +29106,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K686">
         <v>0.09090909090909091</v>
@@ -29180,7 +29132,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K687">
         <v>0.09090909090909091</v>
@@ -29466,7 +29418,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K698">
         <v>0.09090909090909091</v>
@@ -29518,7 +29470,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K700">
         <v>0.08974358974358974</v>
@@ -29778,7 +29730,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K710">
         <v>0.08333333333333333</v>
@@ -30220,7 +30172,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K727">
         <v>0.07692307692307693</v>
@@ -30558,7 +30510,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K740">
         <v>0.07692307692307693</v>
@@ -30792,7 +30744,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K749">
         <v>0.075</v>
@@ -31364,7 +31316,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K771">
         <v>0.06769230769230769</v>
@@ -31442,7 +31394,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K774">
         <v>0.06666666666666667</v>
@@ -31832,7 +31784,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K789">
         <v>0.064</v>
@@ -32560,7 +32512,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K817">
         <v>0.05555555555555555</v>
@@ -32768,7 +32720,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K825">
         <v>0.05542725173210162</v>
@@ -32794,7 +32746,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K826">
         <v>0.05508474576271186</v>
@@ -32872,7 +32824,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K829">
         <v>0.05357142857142857</v>
@@ -33184,7 +33136,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K841">
         <v>0.05</v>
@@ -33730,7 +33682,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K862">
         <v>0.04629629629629629</v>
@@ -34250,7 +34202,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K882">
         <v>0.04290322580645161</v>
@@ -34380,7 +34332,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K887">
         <v>0.04166666666666666</v>
@@ -34718,7 +34670,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K900">
         <v>0.03925233644859813</v>
@@ -34848,7 +34800,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K905">
         <v>0.03846153846153846</v>
@@ -35108,7 +35060,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K915">
         <v>0.03614457831325301</v>
@@ -35134,7 +35086,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K916">
         <v>0.03571428571428571</v>
@@ -35628,7 +35580,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K935">
         <v>0.03235747303543914</v>
@@ -35836,7 +35788,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K943">
         <v>0.03076923076923077</v>
@@ -35862,7 +35814,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K944">
         <v>0.0303030303030303</v>
@@ -35888,7 +35840,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K945">
         <v>0.03</v>
@@ -36044,7 +35996,7 @@
     </row>
     <row r="951" spans="10:17">
       <c r="J951" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K951">
         <v>0.02857142857142857</v>
@@ -36278,7 +36230,7 @@
     </row>
     <row r="960" spans="10:17">
       <c r="J960" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K960">
         <v>0.02666666666666667</v>
@@ -36512,7 +36464,7 @@
     </row>
     <row r="969" spans="10:17">
       <c r="J969" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K969">
         <v>0.02439024390243903</v>
@@ -36538,7 +36490,7 @@
     </row>
     <row r="970" spans="10:17">
       <c r="J970" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K970">
         <v>0.02439024390243903</v>
@@ -36616,7 +36568,7 @@
     </row>
     <row r="973" spans="10:17">
       <c r="J973" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K973">
         <v>0.02408507976227714</v>
@@ -36694,7 +36646,7 @@
     </row>
     <row r="976" spans="10:17">
       <c r="J976" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K976">
         <v>0.02352941176470588</v>
@@ -36876,7 +36828,7 @@
     </row>
     <row r="983" spans="10:17">
       <c r="J983" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K983">
         <v>0.02241379310344828</v>
@@ -37084,7 +37036,7 @@
     </row>
     <row r="991" spans="10:17">
       <c r="J991" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K991">
         <v>0.02127659574468085</v>
@@ -37162,7 +37114,7 @@
     </row>
     <row r="994" spans="10:17">
       <c r="J994" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K994">
         <v>0.02105263157894737</v>
@@ -37214,7 +37166,7 @@
     </row>
     <row r="996" spans="10:17">
       <c r="J996" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K996">
         <v>0.0202020202020202</v>
@@ -37240,7 +37192,7 @@
     </row>
     <row r="997" spans="10:17">
       <c r="J997" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K997">
         <v>0.0202020202020202</v>
@@ -37474,7 +37426,7 @@
     </row>
     <row r="1006" spans="10:17">
       <c r="J1006" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K1006">
         <v>0.01851851851851852</v>
@@ -37604,7 +37556,7 @@
     </row>
     <row r="1011" spans="10:17">
       <c r="J1011" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K1011">
         <v>0.01724137931034483</v>
@@ -37682,7 +37634,7 @@
     </row>
     <row r="1014" spans="10:17">
       <c r="J1014" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K1014">
         <v>0.01671309192200557</v>
@@ -38176,7 +38128,7 @@
     </row>
     <row r="1033" spans="10:17">
       <c r="J1033" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K1033">
         <v>0.009191176470588236</v>
@@ -38306,7 +38258,7 @@
     </row>
     <row r="1038" spans="10:17">
       <c r="J1038" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K1038">
         <v>0.006237006237006237</v>
@@ -38436,7 +38388,7 @@
     </row>
     <row r="1043" spans="10:17">
       <c r="J1043" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1043">
         <v>0.002314814814814815</v>
